--- a/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 7,65</t>
+          <t>0,64; 9,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 9,47</t>
+          <t>-0,23; 9,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,69; 15,55</t>
+          <t>2,25; 15,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 8,44</t>
+          <t>-3,0; 10,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 10,72</t>
+          <t>0,77; 10,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 19,33</t>
+          <t>-0,23; 10,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 19,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 11,96</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>12,08%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,83%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 12,66</t>
+          <t>-2,34; 9,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 14,36</t>
+          <t>4,4; 21,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 16,01</t>
+          <t>2,58; 15,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 15,18</t>
+          <t>4,77; 19,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 16,98</t>
+          <t>-2,41; 10,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 19,29</t>
+          <t>4,77; 27,15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 18,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5,13; 24,88</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,95</t>
+          <t>0,0; 16,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 23,4</t>
+          <t>0,0; 28,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,8</t>
+          <t>0,0; 19,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 40,55</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>7,59%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,59</t>
+          <t>0,12; 6,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,08</t>
+          <t>3,55; 11,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,98</t>
+          <t>3,58; 12,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,67</t>
+          <t>2,42; 12,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,17</t>
+          <t>0,13; 7,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 15,29</t>
+          <t>3,77; 13,61</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 14,29</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 14,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,9</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,56%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.396258645962458</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.63616998265287</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.823321714211906</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.299110015877671</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.03615470599169138</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.03908677545878825</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.08948769867285468</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.03581106861365331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 9,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 9,77</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 15,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 10,36</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 10,29</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 10,97</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 19,56</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 11,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.9544881857055321</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.052711065122938</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.628755403897619</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.034555458505808</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.009841790603247942</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.02110956207930435</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.01762925139650301</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03255502822259486</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.214526340556262</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.759603034811869</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.83402397186128</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.29489593597301</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.09066793536211712</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.09796357832441951</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1948832220048944</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.118009762490488</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>11,13</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 9,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 21,15</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,58; 15,52</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 19,44</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-2,41; 10,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 27,15</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 18,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 24,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>6.50550875688597</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.09741289640152</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.382631291526788</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.94165713849382</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.0732628335093254</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.127034652124127</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.09317568708360321</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1256448648992885</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3197848391241624</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.541079793569155</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.506884784401081</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.631155720805477</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.003387765684589444</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.04849563034548227</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.02791868956497937</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.04959437733491466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 16,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 28,87</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 19,34</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 40,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.65025982615523</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>21.87851763973796</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.74036908215782</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.14101844014342</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2373634488055419</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.2820540670157365</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2079661227155364</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2412916097232309</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,92</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,96</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,59%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>7,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.432750074906066</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.437007168317356</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.03554776673840054</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.09214429222324395</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 6,88</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 11,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 12,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 12,09</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 7,56</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,77; 13,61</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,84; 14,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 14,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="n">
+        <v>16.8398111709217</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>31.53140057189126</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.2022142884847529</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.4384759176662988</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.413834826368745</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.737658318876571</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.157957235677747</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.904305230002727</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04777995171403599</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.07404420202565702</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0796622665618282</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.07668065193009377</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4027196617338091</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.939864757625088</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.492389292656749</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.348455140389021</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.004234624533643968</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.03139678963684461</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.03728870012950119</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.02512871968196188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.928219446060863</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.91250778781971</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>13.03685169964197</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.07085087286125</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1134526122239586</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1380214635754046</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1555685287639083</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.141025434234048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1009,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
